--- a/数据整理/stocks/A股/深证主板/002439-启明星辰.xlsx
+++ b/数据整理/stocks/A股/深证主板/002439-启明星辰.xlsx
@@ -451,883 +451,1191 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家行业优选混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>193.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.4354</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5959</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7538</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5835</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5325</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>60.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2945</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2164</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1799</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1543</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004693</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1518</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>006511</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>博道卓远混合A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>85.50</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>3.89</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1315</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009077</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>33.47</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009078</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>33.47</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>69.50</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82.74</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>69.50</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>006512</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>博道卓远混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>85.50</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>3.89</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>161903</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>万家行业优选混合 (LOF)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>93.15</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007468</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中信建投策略精选混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>82.74</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007042</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007469</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中信建投策略精选混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>82.74</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007825</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>博道志远混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>83.72</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007826</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>博道志远混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>83.72</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008120</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>万家自主创新混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>92.12</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008121</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>万家自主创新混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>92.12</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008347</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中信建投价值甄选混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>90.88</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008348</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中信建投价值甄选混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>90.88</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008633</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>万家科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>90.77</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>7.79</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008634</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>万家科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>90.77</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>7.79</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>009447</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>财通资管科技创新一年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>60.91</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005844</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>东方人工智能主题混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>87.01</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>168701</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>93.68</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>168702</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>93.68</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>515980</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华富中证人工智能产业ETF</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>99.29</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>009077</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>红土创新稳进混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>33.47</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>009078</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>红土创新稳进混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>33.47</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>004693</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>新疆前海联合泳隽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>79.21</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>005933</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>新疆前海联合先进制造灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>80.27</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>005934</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>新疆前海联合先进制造灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>80.27</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>007042</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>新疆前海联合泳隽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>79.21</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>007423</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>西部利得聚禾灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>69.50</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>007424</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>西部利得聚禾灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>69.50</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>003822</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>中信建投行业轮换混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>86.67</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>003823</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>中信建投行业轮换混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>86.67</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>005311</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>万家经济新动能混合A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>93.58</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>005312</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>万家经济新动能混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>93.58</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1337,7 +1645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1358,15 +1666,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1378,26 +1696,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501019</t>
+          <t>161903</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰国证航天军工指数（LOF）</t>
+          <t>万家行业优选混合 (LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.20</t>
+          <t>165.10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.7998</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1406,26 +1734,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>161903</t>
+          <t>008120</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>万家行业优选混合 (LOF)</t>
+          <t>万家自主创新混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>87.86</t>
+          <t>33.48</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.33</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0032</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1434,26 +1772,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003713</t>
+          <t>005311</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>英大睿盛灵活配置混合A</t>
+          <t>万家经济新动能混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>88.60</t>
+          <t>15.69</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8677</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1462,26 +1810,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003714</t>
+          <t>501078</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>英大睿盛灵活配置混合C</t>
+          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>88.60</t>
+          <t>19.02</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5953</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1490,26 +1848,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004693</t>
+          <t>005312</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>新疆前海联合泳隽灵活配置混合A</t>
+          <t>万家经济新动能混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>88.55</t>
+          <t>8.73</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4828</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1518,26 +1886,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007042</t>
+          <t>008633</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>新疆前海联合泳隽灵活配置混合C</t>
+          <t>万家科技创新混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>88.55</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4339</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1546,26 +1924,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005933</t>
+          <t>501019</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>新疆前海联合先进制造灵活配置混合A</t>
+          <t>国泰国证航天军工指数（LOF）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>87.30</t>
+          <t>11.67</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3524</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1574,26 +1962,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005934</t>
+          <t>008121</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>新疆前海联合先进制造灵活配置混合C</t>
+          <t>万家自主创新混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>87.30</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3453</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1602,26 +2000,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005128</t>
+          <t>952035</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华夏永康添福混合</t>
+          <t>国泰君安君得诚混合型集合资产管理计划</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>24.89</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3330</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1630,26 +2038,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007074</t>
+          <t>008634</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国寿安保新蓝筹灵活配置混合</t>
+          <t>万家科技创新混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>43.60</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1816</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1658,25 +2076,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008441</t>
+          <t>004693</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>九泰科新优享灵活配置混合A</t>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>32.12</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.63</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1734</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1686,26 +2114,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>008442</t>
+          <t>009398</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>九泰科新优享灵活配置混合C</t>
+          <t>华富成长企业精选股票</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>32.12</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5.63</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>4</v>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1725</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1714,26 +2152,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>000166</t>
+          <t>515980</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中海信息产业精选混合</t>
+          <t>华富中证人工智能产业ETF</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>56.97</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1629</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1742,26 +2190,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>360011</t>
+          <t>515400</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>光大保德信动态优选混合</t>
+          <t>富国中证大数据产业ETF</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>72.51</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1599</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1770,26 +2228,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>501078</t>
+          <t>003713</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
+          <t>英大睿盛灵活配置混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>91.93</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -1798,26 +2266,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>515400</t>
+          <t>003714</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>富国中证大数据产业ETF</t>
+          <t>英大睿盛灵活配置混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>98.90</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1826,26 +2304,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>515980</t>
+          <t>007074</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华富中证人工智能产业ETF</t>
+          <t>国寿安保新蓝筹灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>99.47</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>9</v>
+          <t>43.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1854,26 +2342,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>673141</t>
+          <t>005933</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>西部利得景程灵活配置混合A</t>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>80.81</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1882,25 +2380,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>673143</t>
+          <t>360011</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>西部利得景程灵活配置混合C</t>
+          <t>光大保德信动态优选混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>80.81</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
+          <t>72.51</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1910,26 +2418,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>005027</t>
+          <t>003117</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>光大保德信多策略优选一年定期开放灵活配置混合</t>
+          <t>光大保德信吉鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>30.59</t>
+          <t>6.16</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
+          <t>20.40</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1938,26 +2456,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>008633</t>
+          <t>000166</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>万家科技创新混合A</t>
+          <t>中海信息产业精选混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>7.86</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>5</v>
+          <t>56.97</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1966,26 +2494,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>008634</t>
+          <t>673141</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>万家科技创新混合C</t>
+          <t>西部利得景程灵活配置混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>7.86</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>5</v>
+          <t>80.81</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -1994,26 +2532,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>005311</t>
+          <t>005027</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>万家经济新动能混合A</t>
+          <t>光大保德信多策略优选一年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>10</v>
+          <t>30.59</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -2022,26 +2570,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>005312</t>
+          <t>970015</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>万家经济新动能混合C</t>
+          <t>申万宏源红利成长灵活配置混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>10</v>
+          <t>60.19</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -2060,15 +2618,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>93.58</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>2.53</t>
         </is>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2078,26 +2646,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>168702</t>
+          <t>003118</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
+          <t>光大保德信吉鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>9</v>
+          <t>20.40</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -2106,26 +2684,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>003117</t>
+          <t>005128</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>光大保德信吉鑫灵活配置混合A</t>
+          <t>华夏永康添福混合</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>20.40</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>5</v>
+          <t>24.89</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -2134,26 +2722,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>003118</t>
+          <t>005934</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>光大保德信吉鑫灵活配置混合C</t>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>20.40</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>5</v>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -2162,26 +2760,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>008120</t>
+          <t>168702</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>万家自主创新混合A</t>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>8.97</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>2</v>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -2190,26 +2798,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>008121</t>
+          <t>008441</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>万家自主创新混合C</t>
+          <t>九泰科新优享灵活配置混合A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>8.97</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>2</v>
+          <t>32.12</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -2218,26 +2836,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>952035</t>
+          <t>008442</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>国泰君安君得诚混合型集合资产管理计划</t>
+          <t>九泰科新优享灵活配置混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>86.81</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>5</v>
+          <t>32.12</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -2246,26 +2874,30 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>009398</t>
+          <t>007042</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>华富成长企业精选股票</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>8</v>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -2274,26 +2906,30 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>970015</t>
+          <t>673143</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>申万宏源红利成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>60.19</t>
-        </is>
-      </c>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>2</v>
+          <t>80.81</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002439-启明星辰.xlsx
+++ b/数据整理/stocks/A股/深证主板/002439-启明星辰.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2882,7 +2883,6 @@
           <t>新疆前海联合泳隽灵活配置混合C</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
           <t>88.55</t>
@@ -2914,7 +2914,6 @@
           <t>西部利得景程灵活配置混合C</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
           <t>80.81</t>
@@ -2930,6 +2929,554 @@
       </c>
       <c r="H34" t="n">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7842</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2104</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004693</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1800</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1004</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>64.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>37.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010756</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴华永兴混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010757</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴华永兴混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007042</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002439-启明星辰.xlsx
+++ b/数据整理/stocks/A股/深证主板/002439-启明星辰.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3482,4 +3483,590 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>900010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>126.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4182</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>900090</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>96.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6114</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>62.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3928</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009312</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4977</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4913</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004693</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4704</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>900100</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2084</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009313</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>73.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>96.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007042</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002439-启明星辰.xlsx
+++ b/数据整理/stocks/A股/深证主板/002439-启明星辰.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4069,4 +4070,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>33</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002439-启明星辰.xlsx
+++ b/数据整理/stocks/A股/深证主板/002439-启明星辰.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4078,7 +4079,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4089,17 +4090,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4109,14 +4130,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.35</v>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1392</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -4125,14 +4168,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.46</v>
+          <t>009312</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2920</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -4141,14 +4206,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>33</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16.63</v>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>29.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1761</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -4157,13 +4244,757 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>004693</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5568</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>620001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金元顺安宝石动力混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>59.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002780</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新疆前海联合泓鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1045</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009313</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1028</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007043</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新疆前海联合泓鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010495</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>70.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>96.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010496</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010756</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴华永兴混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>95.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010757</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴华永兴混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007042</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>33</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16.63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>30</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>15.55</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002439-启明星辰.xlsx
+++ b/数据整理/stocks/A股/深证主板/002439-启明星辰.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4893,7 +4894,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4904,17 +4905,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4924,14 +4945,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.88</v>
+          <t>009312</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4813</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -4940,14 +4983,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.35</v>
+          <t>004693</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4277</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -4956,14 +5021,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.46</v>
+          <t>009313</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -4972,14 +5059,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>33</v>
-      </c>
-      <c r="D5" t="n">
-        <v>16.63</v>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>70.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -4988,13 +5097,241 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国信价值智选混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>67.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013903</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰君安信息行业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007042</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="n">
+        <v>16.63</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>30</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>15.55</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002439-启明星辰.xlsx
+++ b/数据整理/stocks/A股/深证主板/002439-启明星辰.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5214,7 +5215,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5225,17 +5226,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5245,14 +5266,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.04</v>
+          <t>009312</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5190</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -5261,14 +5304,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.88</v>
+          <t>004693</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4683</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -5277,14 +5342,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.35</v>
+          <t>009313</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -5293,14 +5380,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>13</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.46</v>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国信价值智选混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -5309,14 +5418,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>33</v>
-      </c>
-      <c r="D6" t="n">
-        <v>16.63</v>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -5325,13 +5456,369 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010756</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴华永兴混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010757</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴华永兴混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007042</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>33</v>
+      </c>
+      <c r="D7" t="n">
+        <v>16.63</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>30</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>15.55</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002439-启明星辰.xlsx
+++ b/数据整理/stocks/A股/深证主板/002439-启明星辰.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>1.13</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>1.04</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>5.88</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>10.35</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>1.46</v>
+        <v>10.35</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>16.63</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>33</v>
+      </c>
+      <c r="D8" t="n">
+        <v>16.63</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>30</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>15.55</v>
       </c>
     </row>
@@ -600,6 +617,782 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004693</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4948</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009312</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4825</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014094</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方誉盈一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1720</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009313</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国信价值智选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>70.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000935</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浙商汇金转型成长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013145</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浙商汇金先进制造混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014095</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方誉盈一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011824</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>169201</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011825</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007042</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1069,7 +1862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1389,7 +2182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2203,7 +2996,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2789,7 +3582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3337,7 +4130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4633,7 +5426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002439-启明星辰.xlsx
+++ b/数据整理/stocks/A股/深证主板/002439-启明星辰.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D2" t="n">
-        <v>1.64</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>1.13</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>1.04</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>5.88</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>10.35</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>1.46</v>
+        <v>10.35</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D8" t="n">
-        <v>16.63</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1224 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>33</v>
+      </c>
+      <c r="D9" t="n">
+        <v>16.63</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>30</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>15.55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家行业优选混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>193.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.4354</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5959</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7538</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5835</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5325</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>60.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2945</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2164</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1799</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1543</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004693</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1518</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1315</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009077</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>33.47</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009078</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>33.47</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>69.50</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82.74</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>69.50</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007042</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1828,1658 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007484</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信澳核心科技混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9224</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6939</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004693</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6387</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009312</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6201</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5645</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014048</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1891</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012370</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华鑫利一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1803</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014094</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方誉盈一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>28.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1741</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1473</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009313</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014506</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时成长臻选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1001</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015305</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华鑫峰混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015559</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长江启航混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011698</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>50.62</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014697</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方誉稳一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>24.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014349</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014698</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方誉稳一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>24.51</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.29</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015306</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华鑫峰混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012522</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>23.17</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002025</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>30.13</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000935</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浙商汇金转型成长混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>76.54</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013145</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浙商汇金先进制造混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012521</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>23.17</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014095</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方誉盈一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>28.74</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011701</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>50.62</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>169201</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>69.83</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002220</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方瑞利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>20.71</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014507</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时成长臻选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003938</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方荣尊混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>29.78</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>015560</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长江启航混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>83.62</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002026</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>30.13</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007533</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>格林创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>75.81</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007534</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>格林创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>75.81</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003939</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方荣尊混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>29.78</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006140</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发集嘉债券A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006141</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发集嘉债券C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007042</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1392,7 +4255,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1862,7 +4725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2182,7 +5045,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2996,7 +5859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3582,7 +6445,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4130,7 +6993,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5424,1198 +8287,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>161903</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>万家行业优选混合 (LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>193.03</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.15</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>8.4354</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008120</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>万家自主创新混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>46.19</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.12</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.5959</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005311</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>万家经济新动能混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>28.75</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.58</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.7538</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008633</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>万家科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7.49</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.77</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.79</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5835</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005312</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>万家经济新动能混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8.73</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.58</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5325</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009447</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>财通资管科技创新一年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>10.48</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>60.91</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2945</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008121</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>万家自主创新混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.12</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2164</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008634</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>万家科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.77</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>7.79</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1799</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>515980</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华富中证人工智能产业ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>99.29</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1543</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004693</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>新疆前海联合泳隽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>79.21</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1518</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006511</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>博道卓远混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>85.50</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1315</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>003822</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中信建投行业轮换混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>86.67</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0760</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>007825</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>博道志远混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>83.72</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0751</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005933</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>新疆前海联合先进制造灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>80.27</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0620</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>007468</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中信建投策略精选混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>82.74</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0553</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>008347</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中信建投价值甄选混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>90.88</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0408</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>007826</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>博道志远混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>83.72</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0331</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>009077</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>红土创新稳进混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>33.47</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0293</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>168701</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>93.68</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0259</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>009078</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>红土创新稳进混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>33.47</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0258</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>007423</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>西部利得聚禾灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>69.50</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0250</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>005844</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>东方人工智能主题混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>87.01</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0185</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>003823</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>中信建投行业轮换混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>86.67</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0158</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>007469</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>中信建投策略精选混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>82.74</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0117</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>008348</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>中信建投价值甄选混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>90.88</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0092</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>007424</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>西部利得聚禾灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>69.50</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0063</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>005934</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>新疆前海联合先进制造灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>80.27</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0042</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>006512</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>博道卓远混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>85.50</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>168702</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>93.68</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>007042</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>新疆前海联合泳隽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>79.21</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>